--- a/Data/PrincipalloginStudentManagementmodule.xlsx
+++ b/Data/PrincipalloginStudentManagementmodule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwinraj\Desktop\studentmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\EdwinAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>13</v>
